--- a/server/prisma/data/COLLEGES.xlsx
+++ b/server/prisma/data/COLLEGES.xlsx
@@ -80,7 +80,7 @@
     <t>Bachelor of Science in Agricultural Economics (BSAgEcon)</t>
   </si>
   <si>
-    <t>Bachelor of Science in Business Administration</t>
+    <t>Bachelor of Science in Business Administration (BSBA)</t>
   </si>
   <si>
     <t>Bachelor of Public Administration (BPAd)</t>
@@ -125,7 +125,7 @@
     <t>Bachelor of Science in Agriculture (BSA)</t>
   </si>
   <si>
-    <t>Bachelor of Science in Agricultural Technology</t>
+    <t>Bachelor of Science in Agricultural Technology (BSAgriTech)</t>
   </si>
   <si>
     <t>Bachelor of Science in Fisheries (BSF)</t>
@@ -164,7 +164,7 @@
     <t>Bachelor of Physical Education (BPE)</t>
   </si>
   <si>
-    <t>Bachelor of Science in Exercise and Sports Sciences</t>
+    <t>Bachelor of Science in Exercise and Sports Sciences (BSESS)</t>
   </si>
   <si>
     <t>CED</t>
@@ -335,7 +335,7 @@
     <t>Bachelor of Science in Chemistry (BSChem)</t>
   </si>
   <si>
-    <t>Bachelor of Science in Microbiology</t>
+    <t>Bachelor of Science in Microbiology(BSMicrobio)</t>
   </si>
   <si>
     <t>Bachelor of Science in Biology (BSBio)</t>
@@ -1694,8 +1694,8 @@
   </sheetPr>
   <dimension ref="A2:B111"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6296296296296" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="1"/>
@@ -1808,7 +1808,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" ht="13.2" spans="1:2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" ht="13.2" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="7" t="s">
         <v>29</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="100" ht="13.2" spans="1:2">
+    <row r="100" spans="1:2">
       <c r="A100" s="24" t="s">
         <v>99</v>
       </c>
